--- a/biology/Biologie cellulaire et moléculaire/JunD/JunD.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/JunD/JunD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le JunD est une protéine avec un rôle de facteur de transcription. Son gène est le JUND situé sur le chromosome 19 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il intervient dans l'angiogenèse tumorale[5], la différenciation cellulaire et l'apoptose[6]. Il est protecteur vis-à-vis du stress oxydatif en augmentant l'expression de certaines protéines, comme la ferritine[7]. Il freine les altérations de la fonction de l'endothélium vasculaire des à l'âge[8].
-Chez le rat, il intervient dans la spermatogenèse[9]. Par ailleurs, la ménine inhibe son activité, supprimant par ce biais la différenciation des ostéoblastes[10]. 
-Son expression est réduite en cas d'insuffisance cardiaque terminale[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il intervient dans l'angiogenèse tumorale, la différenciation cellulaire et l'apoptose. Il est protecteur vis-à-vis du stress oxydatif en augmentant l'expression de certaines protéines, comme la ferritine. Il freine les altérations de la fonction de l'endothélium vasculaire des à l'âge.
+Chez le rat, il intervient dans la spermatogenèse. Par ailleurs, la ménine inhibe son activité, supprimant par ce biais la différenciation des ostéoblastes. 
+Son expression est réduite en cas d'insuffisance cardiaque terminale.
 </t>
         </is>
       </c>
